--- a/figures/BMP_Table6/BMP_Table6.xlsx
+++ b/figures/BMP_Table6/BMP_Table6.xlsx
@@ -14,6 +14,15 @@
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Folha1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>Samples</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Gestation</t>
   </si>
@@ -38,9 +44,6 @@
     <t>Weaners</t>
   </si>
   <si>
-    <t>Farrowing</t>
-  </si>
-  <si>
     <r>
       <t>BMP</t>
     </r>
@@ -88,7 +91,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30</t>
+      <t>43</t>
     </r>
     <r>
       <rPr>
@@ -109,7 +112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>57</t>
+      <t>71</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +133,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>41</t>
+      <t>27</t>
     </r>
     <r>
       <rPr>
@@ -156,7 +159,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>43</t>
+      <t>74</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +180,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>71</t>
+      <t>115</t>
     </r>
     <r>
       <rPr>
@@ -198,7 +201,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>27</t>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
     </r>
     <r>
       <rPr>
@@ -213,166 +305,6 @@
   </si>
   <si>
     <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>115</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NS</t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
       <t>BD</t>
     </r>
     <r>
@@ -462,6 +394,9 @@
       </rPr>
       <t>4exp</t>
     </r>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
 </sst>
 </file>
@@ -516,19 +451,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,208 +758,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>487.65</v>
+      </c>
+      <c r="D3" s="7">
+        <v>653.46</v>
+      </c>
+      <c r="E3" s="7">
+        <v>374.98</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>487.65</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
         <f>489.14/1.037</f>
         <v>471.68756027000967</v>
       </c>
-      <c r="E3" s="3">
-        <v>299.66000000000003</v>
-      </c>
-      <c r="F3" s="7">
-        <f>E3/C3*100</f>
-        <v>61.449810314774943</v>
-      </c>
-      <c r="G3" s="7">
-        <f>E3/D3*100</f>
-        <v>63.529341292881384</v>
-      </c>
-      <c r="H3">
-        <v>47.09</v>
-      </c>
-      <c r="I3">
-        <v>54.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>653.46</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <f>3214.34/3.242</f>
         <v>991.46822948797046</v>
       </c>
-      <c r="E4" s="3">
-        <v>258.58</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:G5" si="0">E4/C4*100</f>
-        <v>39.570899519480911</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G5" si="1">E4/D4*100</f>
-        <v>26.080512951336821</v>
-      </c>
-      <c r="H4" s="5">
-        <v>60.2</v>
-      </c>
-      <c r="I4">
-        <v>58.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>374.98</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="E4" s="7">
         <f>808.82/1.307</f>
         <v>618.83703136954864</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>299.66000000000003</v>
+      </c>
+      <c r="D5" s="7">
+        <v>258.58</v>
+      </c>
+      <c r="E5" s="7">
         <v>174.31</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C5/C3*100</f>
+        <v>61.449810314774943</v>
+      </c>
+      <c r="D6" s="8">
+        <f>D5/D3*100</f>
+        <v>39.570899519480911</v>
+      </c>
+      <c r="E6" s="8">
+        <f>E5/E3*100</f>
         <v>46.485145874446637</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C5/C4*100</f>
+        <v>63.529341292881384</v>
+      </c>
+      <c r="D7" s="8">
+        <f>D5/D4*100</f>
+        <v>26.080512951336821</v>
+      </c>
+      <c r="E7" s="8">
+        <f>E5/E4*100</f>
         <v>28.167351202987067</v>
       </c>
-      <c r="H5">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>47.09</v>
+      </c>
+      <c r="D8" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="E8" s="7">
         <v>45.45</v>
       </c>
-      <c r="I5">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7">
+        <v>54.06</v>
+      </c>
+      <c r="D9" s="7">
+        <v>58.95</v>
+      </c>
+      <c r="E9" s="7">
         <v>45.74</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>229.62</v>
-      </c>
-      <c r="D6" s="6">
-        <f>98.88/0.179</f>
-        <v>552.40223463687153</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>38.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/figures/BMP_Table6/BMP_Table6.xlsx
+++ b/figures/BMP_Table6/BMP_Table6.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Gestation</t>
   </si>
@@ -304,6 +304,9 @@
     </r>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <r>
       <t>BD</t>
     </r>
@@ -352,15 +355,6 @@
     </r>
   </si>
   <si>
-    <t>Theoretical methane yield (mL CH4.VS added-1)</t>
-  </si>
-  <si>
-    <t>Speficic methane yield (mL CH4.VS added-1)</t>
-  </si>
-  <si>
-    <t>Biodegradability (%)</t>
-  </si>
-  <si>
     <r>
       <t>CH</t>
     </r>
@@ -377,9 +371,6 @@
     </r>
   </si>
   <si>
-    <t>Methane content (%)</t>
-  </si>
-  <si>
     <r>
       <t>CH</t>
     </r>
@@ -397,6 +388,27 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>Theoretical methane yield</t>
+  </si>
+  <si>
+    <t>(mL CH4.VS added-1)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Speficic methane yield</t>
+  </si>
+  <si>
+    <t>Biodegradability</t>
+  </si>
+  <si>
+    <t>Methane content</t>
   </si>
 </sst>
 </file>
@@ -451,14 +463,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -761,171 +767,189 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
         <v>487.65</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="5">
         <v>653.46</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="5">
         <v>374.98</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
         <f>489.14/1.037</f>
         <v>471.68756027000967</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="5">
         <f>3214.34/3.242</f>
         <v>991.46822948797046</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="5">
         <f>808.82/1.307</f>
         <v>618.83703136954864</v>
       </c>
-      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
         <v>299.66000000000003</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="5">
         <v>258.58</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="5">
         <v>174.31</v>
       </c>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8">
-        <f>C5/C3*100</f>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D5/D3*100</f>
         <v>61.449810314774943</v>
       </c>
-      <c r="D6" s="8">
-        <f>D5/D3*100</f>
+      <c r="E6" s="6">
+        <f>E5/E3*100</f>
         <v>39.570899519480911</v>
       </c>
-      <c r="E6" s="8">
-        <f>E5/E3*100</f>
+      <c r="F6" s="6">
+        <f>F5/F3*100</f>
         <v>46.485145874446637</v>
       </c>
-      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
-        <f>C5/C4*100</f>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D5/D4*100</f>
         <v>63.529341292881384</v>
       </c>
-      <c r="D7" s="8">
-        <f>D5/D4*100</f>
+      <c r="E7" s="6">
+        <f>E5/E4*100</f>
         <v>26.080512951336821</v>
       </c>
-      <c r="E7" s="8">
-        <f>E5/E4*100</f>
+      <c r="F7" s="6">
+        <f>F5/F4*100</f>
         <v>28.167351202987067</v>
       </c>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
         <v>47.09</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="5">
         <v>60.2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="5">
         <v>45.45</v>
       </c>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
         <v>54.06</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="5">
         <v>58.95</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="5">
         <v>45.74</v>
       </c>
-      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/figures/BMP_Table6/BMP_Table6.xlsx
+++ b/figures/BMP_Table6/BMP_Table6.xlsx
@@ -393,9 +393,6 @@
     <t>Theoretical methane yield</t>
   </si>
   <si>
-    <t>(mL CH4.VS added-1)</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -409,6 +406,53 @@
   </si>
   <si>
     <t>Methane content</t>
+  </si>
+  <si>
+    <r>
+      <t>(mL.CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gVS added</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -418,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +479,14 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -469,18 +521,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -767,187 +819,187 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="6"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
         <v>487.65</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>653.46</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>374.98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
         <f>489.14/1.037</f>
         <v>471.68756027000967</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f>3214.34/3.242</f>
         <v>991.46822948797046</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f>808.82/1.307</f>
         <v>618.83703136954864</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
         <v>299.66000000000003</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>258.58</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>174.31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
         <f>D5/D3*100</f>
         <v>61.449810314774943</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>E5/E3*100</f>
         <v>39.570899519480911</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f>F5/F3*100</f>
         <v>46.485145874446637</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
         <f>D5/D4*100</f>
         <v>63.529341292881384</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <f>E5/E4*100</f>
         <v>26.080512951336821</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f>F5/F4*100</f>
         <v>28.167351202987067</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
         <v>47.09</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>60.2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>45.45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
         <v>54.06</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>58.95</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>45.74</v>
       </c>
     </row>
